--- a/RateChanges_Tables/RateChange_AIRTemperature.xlsx
+++ b/RateChanges_Tables/RateChange_AIRTemperature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/f_camacho10_uniandes_edu_co/Documents/Copernicus_Master_Olomouc_Documents/Thesis/Github/PatagonianGlaciers/RateChanges_Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2021" documentId="8_{BAF874D9-E8A1-4265-8A0F-1369D0335601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57BC8D9A-AEE4-4C82-9E0D-B63D191DB06C}"/>
+  <xr:revisionPtr revIDLastSave="2022" documentId="8_{BAF874D9-E8A1-4265-8A0F-1369D0335601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C05684-2B51-4EA9-B3A0-F6B7CFC14A7F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{435046F6-EC06-4655-B96B-6FFE8ECAD724}"/>
+    <workbookView xWindow="4428" yWindow="2892" windowWidth="17280" windowHeight="9420" xr2:uid="{435046F6-EC06-4655-B96B-6FFE8ECAD724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13208C3-3FA8-4D4F-B255-1E2A563D754A}">
   <dimension ref="B2:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C85"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,2167 +858,2167 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.21149999999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.48709999999999998</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.30280000000000001</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1513.41</v>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.69E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-1.57</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.15079999999999999</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1723.07</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.17829999999999999</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.4506</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.1668</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1314.58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.1699</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.41639999999999999</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G4" s="4">
-        <v>0.1283</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1300.28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.16450000000000001</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.4425</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.1154</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1327.67</v>
+      <c r="G5" s="7">
+        <v>0.3412</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1063.92</v>
       </c>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.15090000000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.76</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.4047</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1742.72</v>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.78E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-2.08</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G6" s="7">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1501.83</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
-        <v>0.16520000000000001</v>
+        <v>0.13689999999999999</v>
       </c>
       <c r="D7" s="3">
-        <v>2.09</v>
+        <v>2.71</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4022</v>
+        <v>0.24110000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="G7" s="4">
-        <v>0.1363</v>
+        <v>0.12659999999999999</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="3">
-        <v>1452.22</v>
+        <v>1475.21</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
-        <v>0.13800000000000001</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>2.6</v>
+        <v>3.69</v>
       </c>
       <c r="E8" s="3">
-        <v>0.38329999999999997</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="F8" s="3">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="G8" s="4">
-        <v>9.5299999999999996E-2</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I8" s="3">
-        <v>1183.24</v>
+        <v>1133.6400000000001</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
-        <v>0.13189999999999999</v>
+        <v>-8.8000000000000005E-3</v>
       </c>
       <c r="D9" s="3">
-        <v>2.67</v>
+        <v>4.72</v>
       </c>
       <c r="E9" s="3">
-        <v>0.36770000000000003</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F9" s="3">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="G9" s="4">
-        <v>9.1700000000000004E-2</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I9" s="3">
-        <v>916.15</v>
+        <v>898.8</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
-        <v>0.11700000000000001</v>
+        <v>0.128</v>
       </c>
       <c r="D10" s="3">
         <v>1.59</v>
       </c>
       <c r="E10" s="3">
-        <v>0.34449999999999997</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="F10" s="3">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="G10" s="4">
-        <v>0.14380000000000001</v>
+        <v>0.1638</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="3">
-        <v>1482.35</v>
+        <v>697.44</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
-        <v>0.1401</v>
+        <v>0.13189999999999999</v>
       </c>
       <c r="D11" s="3">
-        <v>2.09</v>
+        <v>2.67</v>
       </c>
       <c r="E11" s="3">
-        <v>0.33360000000000001</v>
+        <v>0.36770000000000003</v>
       </c>
       <c r="F11" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G11" s="4">
-        <v>0.13389999999999999</v>
+        <v>9.1700000000000004E-2</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="3">
-        <v>1732.78</v>
+        <v>916.15</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3">
-        <v>0.128</v>
+        <v>0.14349999999999999</v>
       </c>
       <c r="D12" s="3">
-        <v>1.59</v>
+        <v>0.52</v>
       </c>
       <c r="E12" s="3">
-        <v>0.32700000000000001</v>
+        <v>0.378</v>
       </c>
       <c r="F12" s="3">
         <v>0.26</v>
       </c>
       <c r="G12" s="4">
-        <v>0.1638</v>
+        <v>0.50039999999999996</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I12" s="3">
-        <v>697.44</v>
+        <v>1483.15</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3">
-        <v>0.128</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="D13" s="3">
-        <v>1.59</v>
+        <v>0.02</v>
       </c>
       <c r="E13" s="3">
-        <v>0.32700000000000001</v>
+        <v>0.2787</v>
       </c>
       <c r="F13" s="3">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="G13" s="4">
-        <v>0.1638</v>
+        <v>12.2273</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="3">
-        <v>1692.06</v>
+        <v>1663.99</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.128</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1.59</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.1638</v>
-      </c>
-      <c r="H14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="5">
-        <v>1433.71</v>
+      <c r="I14" s="3">
+        <v>1513.41</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3">
-        <v>0.1467</v>
+        <v>7.3899999999999993E-2</v>
       </c>
       <c r="D15" s="3">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="E15" s="3">
-        <v>0.32390000000000002</v>
+        <v>0.107</v>
       </c>
       <c r="F15" s="3">
         <v>0.3</v>
       </c>
       <c r="G15" s="4">
-        <v>0.1734</v>
+        <v>0.1784</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
-        <v>1483.84</v>
+        <v>1930.81</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3">
-        <v>0.16520000000000001</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="D16" s="3">
-        <v>3.48</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="E16" s="3">
-        <v>0.3085</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="F16" s="3">
         <v>0.35</v>
       </c>
       <c r="G16" s="4">
-        <v>0.1004</v>
+        <v>1.9831000000000001</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I16" s="3">
-        <v>1292.74</v>
+        <v>1812.72</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.16520000000000001</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3.48</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.3085</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.1004</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1113.52</v>
+      <c r="B17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.38719999999999999</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1491.27</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3">
-        <v>0.17019999999999999</v>
+        <v>0.1472</v>
       </c>
       <c r="D18" s="3">
-        <v>5.63</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="E18" s="3">
-        <v>0.29709999999999998</v>
+        <v>0.3654</v>
       </c>
       <c r="F18" s="3">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="G18" s="4">
-        <v>6.5699999999999995E-2</v>
+        <v>0.41470000000000001</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I18" s="3">
-        <v>812.45</v>
+        <v>1518.74</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3">
-        <v>0.12620000000000001</v>
+        <v>0.1467</v>
       </c>
       <c r="D19" s="3">
-        <v>3.17</v>
+        <v>1.73</v>
       </c>
       <c r="E19" s="3">
-        <v>0.2878</v>
+        <v>0.32390000000000002</v>
       </c>
       <c r="F19" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="G19" s="4">
-        <v>8.8499999999999995E-2</v>
+        <v>0.1734</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="3">
-        <v>1249.04</v>
+        <v>1483.84</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3">
-        <v>0.10639999999999999</v>
+        <v>5.5100000000000003E-2</v>
       </c>
       <c r="D20" s="3">
-        <v>0.02</v>
+        <v>0.88</v>
       </c>
       <c r="E20" s="3">
-        <v>0.2787</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F20" s="3">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="G20" s="4">
-        <v>12.2273</v>
+        <v>0.28960000000000002</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I20" s="3">
-        <v>1663.99</v>
+        <v>1461.55</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3">
-        <v>0.20780000000000001</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="D21" s="3">
-        <v>4.71</v>
+        <v>1.91</v>
       </c>
       <c r="E21" s="3">
-        <v>0.27729999999999999</v>
+        <v>0.17549999999999999</v>
       </c>
       <c r="F21" s="3">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="G21" s="4">
-        <v>0.1008</v>
+        <v>0.13250000000000001</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="3">
-        <v>848.38</v>
+        <v>1683.56</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3">
-        <v>0.13689999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="D22" s="3">
-        <v>2.71</v>
+        <v>1.59</v>
       </c>
       <c r="E22" s="3">
-        <v>0.24110000000000001</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="F22" s="3">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="G22" s="4">
-        <v>0.12659999999999999</v>
+        <v>0.1638</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="3">
-        <v>1475.21</v>
+        <v>1692.06</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3">
-        <v>0.1731</v>
+        <v>0.16520000000000001</v>
       </c>
       <c r="D23" s="3">
-        <v>4.6055000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="E23" s="3">
-        <v>0.21820000000000001</v>
+        <v>0.3085</v>
       </c>
       <c r="F23" s="3">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="G23" s="4">
-        <v>9.0399999999999994E-2</v>
+        <v>0.1004</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="3">
-        <v>1208.23</v>
+        <v>1292.74</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.1731</v>
-      </c>
-      <c r="D24" s="5">
-        <v>5.13</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.21820000000000001</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="G24" s="7">
-        <v>9.0399999999999994E-2</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1419.29</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.77</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.20180000000000001</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1000.48</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3">
-        <v>0.13469999999999999</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="D25" s="3">
-        <v>3.67</v>
+        <v>0.52</v>
       </c>
       <c r="E25" s="3">
-        <v>0.1825</v>
+        <v>0.1172</v>
       </c>
       <c r="F25" s="3">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="G25" s="4">
-        <v>0.11</v>
+        <v>0.6724</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I25" s="3">
-        <v>1033.29</v>
+        <v>1279.6400000000001</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.13469999999999999</v>
-      </c>
-      <c r="D26" s="5">
-        <v>3.67</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0.1825</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.38329999999999997</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="4">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="5">
-        <v>1408.97</v>
+      <c r="I26" s="3">
+        <v>1183.24</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3">
-        <v>0.17069999999999999</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D27" s="3">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="E27" s="3">
-        <v>0.18149999999999999</v>
+        <v>0.2112</v>
       </c>
       <c r="F27" s="3">
-        <v>0.51</v>
+        <v>0.25</v>
       </c>
       <c r="G27" s="4">
-        <v>8.9200000000000002E-2</v>
+        <v>7.9100000000000004E-2</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I27" s="3">
-        <v>1265.3900000000001</v>
+        <v>1035.3699999999999</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.17069999999999999</v>
-      </c>
-      <c r="D28" s="5">
-        <v>5.75</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0.18149999999999999</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0.51</v>
-      </c>
-      <c r="G28" s="7">
-        <v>8.9200000000000002E-2</v>
-      </c>
-      <c r="H28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5.63</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.29709999999999998</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="G28" s="4">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="5">
-        <v>1408.82</v>
+      <c r="I28" s="3">
+        <v>812.45</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3">
-        <v>8.2699999999999996E-2</v>
+        <v>0.17069999999999999</v>
       </c>
       <c r="D29" s="3">
-        <v>1.91</v>
+        <v>5.75</v>
       </c>
       <c r="E29" s="3">
-        <v>0.17549999999999999</v>
+        <v>0.18149999999999999</v>
       </c>
       <c r="F29" s="3">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="G29" s="4">
-        <v>0.13250000000000001</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="3">
-        <v>1683.56</v>
+        <v>1265.3900000000001</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3">
-        <v>0.1555</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="D30" s="3">
-        <v>0.63</v>
+        <v>2.25</v>
       </c>
       <c r="E30" s="3">
-        <v>0.46129999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F30" s="3">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="G30" s="4">
-        <v>0.37719999999999998</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="3">
-        <v>2038.55</v>
+        <v>1342.5</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3">
-        <v>0.1555</v>
+        <v>6.9099999999999995E-2</v>
       </c>
       <c r="D31" s="3">
-        <v>0.63</v>
+        <v>0.98</v>
       </c>
       <c r="E31" s="3">
-        <v>0.46129999999999999</v>
+        <v>0.16009999999999999</v>
       </c>
       <c r="F31" s="3">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="G31" s="4">
-        <v>0.37719999999999998</v>
+        <v>0.2296</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="3">
-        <v>1630.3</v>
+        <v>1459.29</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3">
-        <v>0.18970000000000001</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="D32" s="3">
-        <v>2.37</v>
+        <v>-0.75</v>
       </c>
       <c r="E32" s="3">
-        <v>0.4415</v>
+        <v>0.20469999999999999</v>
       </c>
       <c r="F32" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.32790000000000002</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1775.61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="F33" s="3">
         <v>0.3</v>
       </c>
-      <c r="G32" s="4">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1614.03</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="5">
-        <v>0.1699</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0.41639999999999999</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0.3412</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="5">
-        <v>1063.92</v>
+      <c r="G33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1351.12</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3">
-        <v>0.2397</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="D34" s="3">
-        <v>4.71</v>
+        <v>1.42</v>
       </c>
       <c r="E34" s="3">
-        <v>0.40329999999999999</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F34" s="3">
-        <v>0.41</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G34" s="4">
-        <v>8.7499999999999994E-2</v>
+        <v>0.1966</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I34" s="3">
-        <v>1113.5</v>
+        <v>1472.4</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="5">
-        <v>0.12759999999999999</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1.33</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0.38719999999999999</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0.17030000000000001</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="5">
-        <v>1491.27</v>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1569.21</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3">
-        <v>0.14349999999999999</v>
+        <v>5.5500000000000001E-2</v>
       </c>
       <c r="D36" s="3">
-        <v>0.52</v>
+        <v>2.76</v>
       </c>
       <c r="E36" s="3">
-        <v>0.378</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F36" s="3">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="G36" s="4">
-        <v>0.50039999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I36" s="3">
-        <v>1483.15</v>
+        <v>1180.22</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C37" s="3">
-        <v>0.1472</v>
+        <v>7.1300000000000002E-2</v>
       </c>
       <c r="D37" s="3">
-        <v>-0.57999999999999996</v>
+        <v>2.99</v>
       </c>
       <c r="E37" s="3">
-        <v>0.3654</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="F37" s="3">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="G37" s="4">
-        <v>0.41470000000000001</v>
+        <v>7.5399999999999995E-2</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I37" s="3">
-        <v>1518.74</v>
+        <v>1133.94</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3">
-        <v>0.12790000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="D38" s="3">
-        <v>0.25</v>
+        <v>3.88</v>
       </c>
       <c r="E38" s="3">
-        <v>0.36449999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F38" s="3">
-        <v>0.24</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G38" s="4">
-        <v>0.9708</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I38" s="3">
-        <v>1059.3399999999999</v>
+        <v>972.84</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3">
-        <v>0.182</v>
+        <v>7.8600000000000003E-2</v>
       </c>
       <c r="D39" s="3">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="E39" s="3">
-        <v>0.34250000000000003</v>
+        <v>0.16120000000000001</v>
       </c>
       <c r="F39" s="3">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="G39" s="4">
-        <v>0.19309999999999999</v>
+        <v>8.4440000000000001E-2</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I39" s="3">
-        <v>1539.27</v>
+        <v>973.92</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3">
-        <v>0.14050000000000001</v>
+        <v>5.4899999999999997E-2</v>
       </c>
       <c r="D40" s="3">
-        <v>3.88</v>
+        <v>2.62</v>
       </c>
       <c r="E40" s="3">
-        <v>0.32500000000000001</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="F40" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="G40" s="4">
-        <v>7.3700000000000002E-2</v>
+        <v>9.1499999999999998E-2</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I40" s="3">
-        <v>972.84</v>
+        <v>1677.11</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C41" s="3">
-        <v>0.112</v>
+        <v>0.18970000000000001</v>
       </c>
       <c r="D41" s="3">
-        <v>0.17</v>
+        <v>2.37</v>
       </c>
       <c r="E41" s="3">
-        <v>0.29020000000000001</v>
+        <v>0.4415</v>
       </c>
       <c r="F41" s="3">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="G41" s="4">
-        <v>1.4221999999999999</v>
+        <v>0.12740000000000001</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I41" s="3">
-        <v>1392.03</v>
+        <v>1614.03</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C42" s="3">
-        <v>0.1221</v>
+        <v>0.182</v>
       </c>
       <c r="D42" s="3">
-        <v>0.59</v>
+        <v>1.85</v>
       </c>
       <c r="E42" s="3">
-        <v>0.28939999999999999</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="F42" s="3">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="G42" s="4">
-        <v>0.46079999999999999</v>
+        <v>0.19309999999999999</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I42" s="3">
-        <v>1366.44</v>
+        <v>1539.27</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C43" s="3">
-        <v>0.1075</v>
+        <v>0.2397</v>
       </c>
       <c r="D43" s="3">
-        <v>-0.2</v>
+        <v>4.71</v>
       </c>
       <c r="E43" s="3">
-        <v>0.28110000000000002</v>
+        <v>0.40329999999999999</v>
       </c>
       <c r="F43" s="3">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="G43" s="4">
-        <v>1.218</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I43" s="3">
-        <v>1299.46</v>
+        <v>1113.5</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C44" s="3">
-        <v>9.2600000000000002E-2</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="D44" s="3">
-        <v>3.2</v>
+        <v>1.49</v>
       </c>
       <c r="E44" s="3">
-        <v>0.2112</v>
+        <v>0.15640000000000001</v>
       </c>
       <c r="F44" s="3">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="G44" s="4">
-        <v>7.9100000000000004E-2</v>
+        <v>0.2104</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I44" s="3">
-        <v>1035.3699999999999</v>
+        <v>1469.65</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C45" s="3">
-        <v>8.8200000000000001E-2</v>
+        <v>6.3899999999999998E-2</v>
       </c>
       <c r="D45" s="3">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E45" s="3">
-        <v>0.20469999999999999</v>
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="F45" s="3">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="G45" s="4">
-        <v>0.32790000000000002</v>
+        <v>0.67069999999999996</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I45" s="3">
-        <v>1775.61</v>
+        <v>1157.93</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C46" s="3">
-        <v>9.06E-2</v>
+        <v>6.3899999999999998E-2</v>
       </c>
       <c r="D46" s="3">
-        <v>-0.43</v>
+        <v>0.5</v>
       </c>
       <c r="E46" s="3">
-        <v>0.17760000000000001</v>
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="F46" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="G46" s="4">
-        <v>0.63680000000000003</v>
+        <v>0.67069999999999996</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I46" s="3">
-        <v>1323.83</v>
+        <v>1644.35</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C47" s="3">
-        <v>8.7099999999999997E-2</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="D47" s="3">
-        <v>6.3E-2</v>
+        <v>3.1</v>
       </c>
       <c r="E47" s="3">
-        <v>0.16789999999999999</v>
+        <v>0.1426</v>
       </c>
       <c r="F47" s="3">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G47" s="4">
-        <v>4.3521000000000001</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I47" s="3">
-        <v>1353.24</v>
+        <v>949.93</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C48" s="3">
-        <v>7.1300000000000002E-2</v>
+        <v>-4.24E-2</v>
       </c>
       <c r="D48" s="3">
-        <v>2.99</v>
+        <v>3.44</v>
       </c>
       <c r="E48" s="3">
-        <v>0.16700000000000001</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="F48" s="3">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="G48" s="4">
-        <v>7.5399999999999995E-2</v>
+        <v>8.7300000000000003E-2</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I48" s="3">
-        <v>1133.94</v>
+        <v>970</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C49" s="3">
-        <v>7.8600000000000003E-2</v>
+        <v>-7.5200000000000003E-2</v>
       </c>
       <c r="D49" s="3">
-        <v>3</v>
+        <v>4.37</v>
       </c>
       <c r="E49" s="3">
-        <v>0.16120000000000001</v>
+        <v>9.1600000000000001E-2</v>
       </c>
       <c r="F49" s="3">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="G49" s="4">
-        <v>8.4440000000000001E-2</v>
+        <v>7.6600000000000001E-2</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I49" s="3">
-        <v>973.92</v>
+        <v>858.13</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C50" s="3">
-        <v>6.9099999999999995E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="D50" s="3">
-        <v>0.98</v>
+        <v>3.94</v>
       </c>
       <c r="E50" s="3">
-        <v>0.16009999999999999</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="F50" s="3">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
       <c r="G50" s="4">
-        <v>0.2296</v>
+        <v>7.7299999999999994E-2</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I50" s="3">
-        <v>1459.29</v>
+        <v>1221.71</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C51" s="3">
-        <v>9.5200000000000007E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="D51" s="3">
-        <v>1.49</v>
+        <v>2.19</v>
       </c>
       <c r="E51" s="3">
-        <v>0.15640000000000001</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="F51" s="3">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="G51" s="4">
-        <v>0.2104</v>
+        <v>8.72E-2</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I51" s="3">
-        <v>1469.65</v>
+        <v>1541.63</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C52" s="3">
-        <v>6.3500000000000001E-2</v>
+        <v>0.1221</v>
       </c>
       <c r="D52" s="3">
-        <v>1.8</v>
+        <v>0.59</v>
       </c>
       <c r="E52" s="3">
-        <v>0.15640000000000001</v>
+        <v>0.28939999999999999</v>
       </c>
       <c r="F52" s="3">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="G52" s="4">
-        <v>0.11600000000000001</v>
+        <v>0.46079999999999999</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I52" s="3">
-        <v>1239.6500000000001</v>
+        <v>1366.44</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C53" s="3">
-        <v>8.2699999999999996E-2</v>
+        <v>0.15090000000000001</v>
       </c>
       <c r="D53" s="3">
-        <v>3.1</v>
+        <v>1.76</v>
       </c>
       <c r="E53" s="3">
-        <v>0.1426</v>
+        <v>0.4047</v>
       </c>
       <c r="F53" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="G53" s="4">
-        <v>9.2700000000000005E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I53" s="3">
-        <v>949.93</v>
+        <v>1742.72</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C54" s="3">
-        <v>8.8599999999999998E-2</v>
+        <v>0.112</v>
       </c>
       <c r="D54" s="3">
-        <v>2.68</v>
+        <v>0.17</v>
       </c>
       <c r="E54" s="3">
-        <v>0.1389</v>
+        <v>0.29020000000000001</v>
       </c>
       <c r="F54" s="3">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="G54" s="4">
-        <v>0.1167</v>
+        <v>1.4221999999999999</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I54" s="3">
-        <v>1196.1199999999999</v>
+        <v>1392.03</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C55" s="3">
-        <v>9.0399999999999994E-2</v>
+        <v>8.7099999999999997E-2</v>
       </c>
       <c r="D55" s="3">
-        <v>0.52</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E55" s="3">
-        <v>0.1172</v>
+        <v>0.16789999999999999</v>
       </c>
       <c r="F55" s="3">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="G55" s="4">
-        <v>0.6724</v>
+        <v>4.3521000000000001</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I55" s="3">
-        <v>1279.6400000000001</v>
+        <v>1353.24</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C56" s="3">
-        <v>5.7099999999999998E-2</v>
+        <v>0.1555</v>
       </c>
       <c r="D56" s="3">
-        <v>0.93</v>
+        <v>0.63</v>
       </c>
       <c r="E56" s="3">
-        <v>0.1154</v>
+        <v>0.46129999999999999</v>
       </c>
       <c r="F56" s="3">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="G56" s="4">
-        <v>0.2399</v>
+        <v>0.37719999999999998</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I56" s="3">
-        <v>1294.3800000000001</v>
+        <v>2038.55</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C57" s="3">
-        <v>7.3899999999999993E-2</v>
+        <v>0.16520000000000001</v>
       </c>
       <c r="D57" s="3">
-        <v>1.69</v>
+        <v>2.09</v>
       </c>
       <c r="E57" s="3">
-        <v>0.107</v>
+        <v>0.4022</v>
       </c>
       <c r="F57" s="3">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G57" s="4">
-        <v>0.1784</v>
+        <v>0.1363</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I57" s="3">
-        <v>1930.81</v>
+        <v>1452.22</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C58" s="3">
-        <v>7.1400000000000005E-2</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="D58" s="3">
-        <v>1.55</v>
+        <v>2.68</v>
       </c>
       <c r="E58" s="3">
-        <v>9.7600000000000006E-2</v>
+        <v>0.1389</v>
       </c>
       <c r="F58" s="3">
         <v>0.31</v>
       </c>
       <c r="G58" s="4">
-        <v>0.1986</v>
+        <v>0.1167</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I58" s="3">
-        <v>1300.8800000000001</v>
+        <v>1196.1199999999999</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C59" s="3">
-        <v>5.4899999999999997E-2</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="D59" s="3">
-        <v>2.62</v>
+        <v>-0.18</v>
       </c>
       <c r="E59" s="3">
-        <v>9.5100000000000004E-2</v>
+        <v>7.9299999999999995E-2</v>
       </c>
       <c r="F59" s="3">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="G59" s="4">
-        <v>9.1499999999999998E-2</v>
+        <v>1.2442</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I59" s="3">
-        <v>1677.11</v>
+        <v>1402.56</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C60" s="3">
-        <v>-7.5200000000000003E-2</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="D60" s="3">
-        <v>4.37</v>
+        <v>-0.77</v>
       </c>
       <c r="E60" s="3">
-        <v>9.1600000000000001E-2</v>
+        <v>6.4100000000000004E-2</v>
       </c>
       <c r="F60" s="3">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="G60" s="4">
-        <v>7.6600000000000001E-2</v>
+        <v>0.29289999999999999</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I60" s="3">
-        <v>858.13</v>
+        <v>1519.71</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C61" s="3">
-        <v>5.5100000000000003E-2</v>
+        <v>0.1555</v>
       </c>
       <c r="D61" s="3">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="E61" s="3">
-        <v>8.5000000000000006E-2</v>
+        <v>0.46129999999999999</v>
       </c>
       <c r="F61" s="3">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="G61" s="4">
-        <v>0.28960000000000002</v>
+        <v>0.37719999999999998</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I61" s="3">
-        <v>1461.55</v>
+        <v>1630.3</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C62" s="3">
-        <v>4.5699999999999998E-2</v>
+        <v>0.13469999999999999</v>
       </c>
       <c r="D62" s="3">
-        <v>-0.18</v>
+        <v>3.67</v>
       </c>
       <c r="E62" s="3">
-        <v>7.9299999999999995E-2</v>
+        <v>0.1825</v>
       </c>
       <c r="F62" s="3">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="G62" s="4">
-        <v>1.2442</v>
+        <v>0.11</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I62" s="3">
-        <v>1402.56</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="5">
-        <v>6.54E-2</v>
-      </c>
-      <c r="D63" s="5">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="E63" s="5">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="F63" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="G63" s="7">
-        <v>0.12690000000000001</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I63" s="5">
-        <v>1490.36</v>
+        <v>1033.29</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="D63" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.27729999999999999</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.1008</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="3">
+        <v>848.38</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="5">
-        <v>6.54E-2</v>
-      </c>
-      <c r="D64" s="5">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="E64" s="5">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="F64" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="G64" s="7">
-        <v>0.12690000000000001</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I64" s="5">
-        <v>1518.59</v>
+        <v>69</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0.9708</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1059.3399999999999</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
-        <v>29</v>
+      <c r="B65" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C65" s="3">
-        <v>7.2800000000000004E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="D65" s="3">
-        <v>1.77</v>
+        <v>-1.06</v>
       </c>
       <c r="E65" s="3">
-        <v>7.6899999999999996E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="F65" s="3">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="G65" s="4">
-        <v>0.20180000000000001</v>
+        <v>0.22950000000000001</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I65" s="3">
-        <v>1000.48</v>
+        <v>1714.16</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C66" s="3">
-        <v>7.1900000000000006E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="D66" s="3">
-        <v>-1.7999999999999999E-2</v>
+        <v>1.55</v>
       </c>
       <c r="E66" s="3">
-        <v>7.6499999999999999E-2</v>
+        <v>9.7600000000000006E-2</v>
       </c>
       <c r="F66" s="3">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="G66" s="4">
-        <v>1.9831000000000001</v>
+        <v>0.1986</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I66" s="3">
-        <v>1812.72</v>
+        <v>1300.8800000000001</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C67" s="3">
-        <v>5.3900000000000003E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="D67" s="3">
-        <v>1.42</v>
+        <v>0.93</v>
       </c>
       <c r="E67" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>0.1154</v>
       </c>
       <c r="F67" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="G67" s="4">
-        <v>0.1966</v>
+        <v>0.2399</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I67" s="3">
-        <v>1472.4</v>
+        <v>1294.3800000000001</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C68" s="3">
-        <v>6.3899999999999998E-2</v>
+        <v>0.1731</v>
       </c>
       <c r="D68" s="3">
-        <v>0.5</v>
+        <v>4.6055000000000001</v>
       </c>
       <c r="E68" s="3">
-        <v>6.7699999999999996E-2</v>
+        <v>0.21820000000000001</v>
       </c>
       <c r="F68" s="3">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="G68" s="4">
-        <v>0.67069999999999996</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I68" s="3">
-        <v>1157.93</v>
+        <v>1208.23</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C69" s="3">
-        <v>6.3899999999999998E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D69" s="3">
-        <v>0.5</v>
+        <v>1.59</v>
       </c>
       <c r="E69" s="3">
-        <v>6.7699999999999996E-2</v>
+        <v>0.34449999999999997</v>
       </c>
       <c r="F69" s="3">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="G69" s="4">
-        <v>0.67069999999999996</v>
+        <v>0.14380000000000001</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I69" s="3">
-        <v>1644.35</v>
+        <v>1482.35</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C70" s="3">
-        <v>4.1799999999999997E-2</v>
+        <v>0.17829999999999999</v>
       </c>
       <c r="D70" s="3">
-        <v>-0.77</v>
+        <v>2.17</v>
       </c>
       <c r="E70" s="3">
-        <v>6.4100000000000004E-2</v>
+        <v>0.4506</v>
       </c>
       <c r="F70" s="3">
-        <v>0.23</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G70" s="4">
-        <v>0.29289999999999999</v>
+        <v>0.1283</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I70" s="3">
-        <v>1519.71</v>
+        <v>1300.28</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C71" s="3">
-        <v>5.5500000000000001E-2</v>
+        <v>0.16450000000000001</v>
       </c>
       <c r="D71" s="3">
-        <v>2.76</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E71" s="3">
-        <v>6.25E-2</v>
+        <v>0.4425</v>
       </c>
       <c r="F71" s="3">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="G71" s="4">
-        <v>0.11</v>
+        <v>0.1154</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I71" s="3">
-        <v>1180.22</v>
+        <v>1327.67</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C72" s="3">
-        <v>3.3399999999999999E-2</v>
+        <v>-8.8000000000000005E-3</v>
       </c>
       <c r="D72" s="3">
-        <v>2.19</v>
+        <v>4.72</v>
       </c>
       <c r="E72" s="3">
-        <v>5.7599999999999998E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F72" s="3">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="G72" s="4">
-        <v>8.72E-2</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I72" s="3">
-        <v>1541.63</v>
+        <v>975.33</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C73" s="3">
-        <v>3.6400000000000002E-2</v>
+        <v>0.1401</v>
       </c>
       <c r="D73" s="3">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="E73" s="3">
-        <v>5.6000000000000001E-2</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="F73" s="3">
-        <v>0.21</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G73" s="4">
-        <v>9.2600000000000002E-2</v>
+        <v>0.13389999999999999</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I73" s="3">
-        <v>1342.5</v>
+        <v>1732.78</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="5">
-        <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="D74" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="E74" s="5">
-        <v>4.8800000000000003E-2</v>
-      </c>
-      <c r="F74" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="G74" s="7">
-        <v>0.1668</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I74" s="5">
-        <v>1314.58</v>
+      <c r="B74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="D74" s="3">
+        <v>3.17</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.2878</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G74" s="4">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1249.04</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="5">
-        <v>4.07E-2</v>
-      </c>
-      <c r="D75" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E75" s="5">
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="F75" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="G75" s="7">
-        <v>0.1132</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I75" s="5">
-        <v>1018.81</v>
+        <v>80</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3.48</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.3085</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0.1004</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="3">
+        <v>1113.52</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C76" s="3">
-        <v>3.5499999999999997E-2</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="D76" s="3">
-        <v>-1.1100000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="E76" s="3">
-        <v>0.04</v>
+        <v>0.15640000000000001</v>
       </c>
       <c r="F76" s="3">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="G76" s="4">
-        <v>0.22120000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I76" s="3">
-        <v>1569.21</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B77" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="3">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="D77" s="3">
-        <v>1.48</v>
-      </c>
-      <c r="E77" s="3">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G77" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I77" s="3">
-        <v>1351.12</v>
+        <v>1239.6500000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="5">
+        <v>6.54E-2</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E77" s="5">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" s="5">
+        <v>1490.36</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="3">
-        <v>-4.24E-2</v>
-      </c>
-      <c r="D78" s="3">
-        <v>3.44</v>
-      </c>
-      <c r="E78" s="3">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G78" s="4">
-        <v>8.7300000000000003E-2</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I78" s="3">
-        <v>970</v>
+        <v>83</v>
+      </c>
+      <c r="C78" s="5">
+        <v>6.54E-2</v>
+      </c>
+      <c r="D78" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E78" s="5">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="5">
+        <v>1518.59</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="8" t="s">
-        <v>5</v>
+      <c r="B79" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C79" s="5">
-        <v>2.69E-2</v>
+        <v>4.07E-2</v>
       </c>
       <c r="D79" s="5">
-        <v>-1.57</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E79" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F79" s="6">
-        <v>0.24</v>
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.26</v>
       </c>
       <c r="G79" s="7">
-        <v>0.15079999999999999</v>
+        <v>0.1132</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I79" s="5">
-        <v>1723.07</v>
+        <v>1018.81</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="3">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="D80" s="3">
-        <v>3.69</v>
-      </c>
-      <c r="E80" s="3">
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="G80" s="4">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I80" s="3">
-        <v>1133.6400000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="9" t="s">
-        <v>9</v>
+        <v>86</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.17069999999999999</v>
+      </c>
+      <c r="D80" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="G80" s="7">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="5">
+        <v>1408.82</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C81" s="5">
-        <v>1.78E-2</v>
+        <v>0.1731</v>
       </c>
       <c r="D81" s="5">
-        <v>-2.08</v>
+        <v>5.13</v>
       </c>
       <c r="E81" s="5">
-        <v>1.6799999999999999E-2</v>
+        <v>0.21820000000000001</v>
       </c>
       <c r="F81" s="5">
-        <v>0.19</v>
+        <v>0.46</v>
       </c>
       <c r="G81" s="7">
-        <v>9.2600000000000002E-2</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I81" s="5">
-        <v>1501.83</v>
+        <v>1419.29</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" s="3">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="D82" s="3">
-        <v>-1.06</v>
-      </c>
-      <c r="E82" s="3">
-        <v>1.38E-2</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="G82" s="4">
-        <v>0.22950000000000001</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I82" s="3">
-        <v>1714.16</v>
+      <c r="B82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="D82" s="5">
+        <v>3.67</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.1825</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="5">
+        <v>1408.97</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C83" s="3">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="D83" s="3">
-        <v>3.94</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="G83" s="4">
-        <v>7.7299999999999994E-2</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1221.71</v>
+        <v>88</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0.128</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1.59</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0.1638</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="5">
+        <v>1433.71</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C84" s="3">
-        <v>-8.8000000000000005E-3</v>
+        <v>0.1075</v>
       </c>
       <c r="D84" s="3">
-        <v>4.72</v>
+        <v>-0.2</v>
       </c>
       <c r="E84" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>0.28110000000000002</v>
       </c>
       <c r="F84" s="3">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="G84" s="4">
-        <v>7.2900000000000006E-2</v>
+        <v>1.218</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I84" s="3">
-        <v>898.8</v>
+        <v>1299.46</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C85" s="3">
-        <v>-8.8000000000000005E-3</v>
+        <v>9.06E-2</v>
       </c>
       <c r="D85" s="3">
-        <v>4.72</v>
+        <v>-0.43</v>
       </c>
       <c r="E85" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>0.17760000000000001</v>
       </c>
       <c r="F85" s="3">
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G85" s="4">
-        <v>7.2900000000000006E-2</v>
+        <v>0.63680000000000003</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I85" s="3">
-        <v>975.33</v>
+        <v>1323.83</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I86">
-    <sortCondition ref="H1:H86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I85">
+    <sortCondition ref="B1:B85"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RateChanges_Tables/RateChange_AIRTemperature.xlsx
+++ b/RateChanges_Tables/RateChange_AIRTemperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/f_camacho10_uniandes_edu_co/Documents/Copernicus_Master_Olomouc_Documents/Thesis/Github/PatagonianGlaciers/RateChanges_Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2072" documentId="8_{BAF874D9-E8A1-4265-8A0F-1369D0335601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DF18E7C-C9D9-4281-9D50-F3373AF586AD}"/>
+  <xr:revisionPtr revIDLastSave="2076" documentId="8_{BAF874D9-E8A1-4265-8A0F-1369D0335601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63BAA98C-5589-4342-9A23-765ED0677F80}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{435046F6-EC06-4655-B96B-6FFE8ECAD724}"/>
   </bookViews>
@@ -305,13 +305,13 @@
     <t>ICEFIELD</t>
   </si>
   <si>
-    <t xml:space="preserve">RATE OF CHANGE °C/year </t>
-  </si>
-  <si>
     <t>R²</t>
   </si>
   <si>
     <t>RMSD</t>
+  </si>
+  <si>
+    <t>RATE OF CHANGE °C/Summer</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -742,7 +742,9 @@
   </sheetPr>
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -762,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>88</v>
